--- a/biology/Botanique/Liste_des_espaces_verts_de_Toulouse/Liste_des_espaces_verts_de_Toulouse.xlsx
+++ b/biology/Botanique/Liste_des_espaces_verts_de_Toulouse/Liste_des_espaces_verts_de_Toulouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article dresse une liste des espaces verts de Toulouse, en France.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jardins
-Jardin botanique Henri-Gaussen
+          <t>Jardins</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jardin botanique Henri-Gaussen
 Jardin Compans-Caffarelli
 Jardin d'Embarthe
 Jardin de l'Observatoire
@@ -522,15 +539,83 @@
 Jardin japonais
 Jardin Raymond-VI
 Jardin Royal
-Jardins du Muséum
-Parcs
-Parc de la Colonne
+Jardins du Muséum</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espaces_verts_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_espaces_verts_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parc de la Colonne
 Parc de la Grande Plaine
 Parc de la Maourine
 Parc de la prairie des Filtres
-Parc de Reynerie
-Autres
-Zone verte des Argoulets
+Parc de Reynerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espaces_verts_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_espaces_verts_de_Toulouse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Zone verte des Argoulets
 Square Charles-de-Gaulle
 Pech-David
 Bois de Pouciquot
